--- a/DCS_Missions/DCS_Maps/Syria/Scripted_Range/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Scripted_Range/Kneeboards/presets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\RANGE\AG\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Scripted_Range\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD808D6-2C49-4236-A6EA-635BACC8216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94050DA7-60C7-4C4E-8198-449FBDD2C458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AV8" sheetId="15" r:id="rId1"/>
@@ -1089,15 +1089,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1110,19 +1109,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,13 +1151,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1167,7 +1166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,9 +1191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1230,37 +1225,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1308,31 +1288,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,13 +1309,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,39 +1324,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1363,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,19 +1375,19 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,7 +1405,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,7 +1414,7 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,28 +1423,28 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,7 +1453,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,25 +1468,25 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,7 +1501,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,33 +1513,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,35 +1544,31 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,7 +1583,7 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,7 +1592,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,7 +1601,7 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,7 +1613,7 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,7 +1643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1708,6 +1651,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,1006 +2011,997 @@
   </sheetPr>
   <dimension ref="D2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="8" width="8.6328125" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="3.36328125" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="217"/>
-    </row>
-    <row r="4" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="219"/>
-    </row>
-    <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="190"/>
+    </row>
+    <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="192"/>
+    </row>
+    <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="191" t="s">
+      <c r="G5" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="164"/>
+      <c r="I5" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="198">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="171">
         <v>1</v>
       </c>
-      <c r="E6" s="199" t="s">
+      <c r="E6" s="172" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="200" t="s">
+      <c r="F6" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="198">
+      <c r="G6" s="171">
         <v>1</v>
       </c>
-      <c r="H6" s="199" t="s">
+      <c r="H6" s="172" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="200" t="s">
+      <c r="I6" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="198">
+      <c r="J6" s="171">
         <v>1</v>
       </c>
-      <c r="K6" s="199" t="s">
+      <c r="K6" s="172" t="s">
         <v>204</v>
       </c>
-      <c r="L6" s="200" t="s">
+      <c r="L6" s="173" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D7" s="107">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="89">
         <v>2</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="107">
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="89">
         <v>2</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="107">
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="89">
         <v>2</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="109"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D8" s="107">
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="89">
         <v>3</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="107">
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="89">
         <v>3</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="107">
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="89">
         <v>3</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="109"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D9" s="211">
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="184">
         <v>4</v>
       </c>
-      <c r="E9" s="212" t="s">
+      <c r="E9" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="213" t="s">
+      <c r="F9" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="211">
+      <c r="G9" s="184">
         <v>4</v>
       </c>
-      <c r="H9" s="212" t="s">
+      <c r="H9" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="213" t="s">
+      <c r="I9" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="211">
+      <c r="J9" s="184">
         <v>4</v>
       </c>
-      <c r="K9" s="212" t="s">
+      <c r="K9" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="213" t="s">
+      <c r="L9" s="186" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D10" s="107">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
         <v>5</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="89">
         <v>5</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="89">
         <v>5</v>
       </c>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="109" t="s">
+      <c r="L10" s="91" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D11" s="117">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
         <v>6</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="98">
         <v>6</v>
       </c>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="98">
         <v>6</v>
       </c>
-      <c r="K11" s="118" t="s">
+      <c r="K11" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="L11" s="119" t="s">
+      <c r="L11" s="100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D12" s="117">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="98">
         <v>7</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="117">
+      <c r="G12" s="98">
         <v>7</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="117">
+      <c r="J12" s="98">
         <v>7</v>
       </c>
-      <c r="K12" s="118" t="s">
+      <c r="K12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="100" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D13" s="125">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
         <v>8</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="106">
         <v>8</v>
       </c>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="207">
+      <c r="J13" s="180">
         <v>8</v>
       </c>
-      <c r="K13" s="208" t="s">
+      <c r="K13" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="209" t="s">
+      <c r="L13" s="182" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D14" s="125">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
         <v>9</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="125">
+      <c r="G14" s="106">
         <v>9</v>
       </c>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="207">
+      <c r="J14" s="180">
         <v>9</v>
       </c>
-      <c r="K14" s="208" t="s">
+      <c r="K14" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="209" t="s">
+      <c r="L14" s="182" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D15" s="125">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
         <v>10</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="106">
         <v>10</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="127" t="s">
+      <c r="I15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="207">
+      <c r="J15" s="180">
         <v>10</v>
       </c>
-      <c r="K15" s="208" t="s">
+      <c r="K15" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="210" t="s">
+      <c r="L15" s="183" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D16" s="125">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
         <v>11</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="106">
         <v>11</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="127" t="s">
+      <c r="I16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="207">
+      <c r="J16" s="180">
         <v>11</v>
       </c>
-      <c r="K16" s="208" t="s">
+      <c r="K16" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="209" t="s">
+      <c r="L16" s="182" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D17" s="125">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
         <v>12</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="106">
         <v>12</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="207">
+      <c r="J17" s="180">
         <v>12</v>
       </c>
-      <c r="K17" s="208" t="s">
+      <c r="K17" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="209" t="s">
+      <c r="L17" s="182" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D18" s="214">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="187">
         <v>13</v>
       </c>
-      <c r="E18" s="182" t="s">
+      <c r="E18" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="214">
+      <c r="G18" s="187">
         <v>13</v>
       </c>
-      <c r="H18" s="182" t="s">
+      <c r="H18" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="183" t="s">
+      <c r="I18" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="J18" s="181">
+      <c r="J18" s="156">
         <v>13</v>
       </c>
-      <c r="K18" s="182" t="s">
+      <c r="K18" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="L18" s="183" t="s">
+      <c r="L18" s="158" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D19" s="214">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="187">
         <v>14</v>
       </c>
-      <c r="E19" s="182" t="s">
+      <c r="E19" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="183" t="s">
+      <c r="F19" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="214">
+      <c r="G19" s="187">
         <v>14</v>
       </c>
-      <c r="H19" s="182" t="s">
+      <c r="H19" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="I19" s="183" t="s">
+      <c r="I19" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="181">
+      <c r="J19" s="156">
         <v>14</v>
       </c>
-      <c r="K19" s="182" t="s">
+      <c r="K19" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="L19" s="183" t="s">
+      <c r="L19" s="158" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D20" s="214">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="187">
         <v>15</v>
       </c>
-      <c r="E20" s="182" t="s">
+      <c r="E20" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="183" t="s">
+      <c r="F20" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="G20" s="214">
+      <c r="G20" s="187">
         <v>15</v>
       </c>
-      <c r="H20" s="182" t="s">
+      <c r="H20" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="183" t="s">
+      <c r="I20" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="181">
+      <c r="J20" s="156">
         <v>15</v>
       </c>
-      <c r="K20" s="182" t="s">
+      <c r="K20" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="L20" s="183" t="s">
+      <c r="L20" s="158" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D21" s="201">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="174">
         <v>16</v>
       </c>
-      <c r="E21" s="202" t="s">
+      <c r="E21" s="175" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="203" t="s">
+      <c r="F21" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="201">
+      <c r="G21" s="174">
         <v>16</v>
       </c>
-      <c r="H21" s="202" t="s">
+      <c r="H21" s="175" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="203" t="s">
+      <c r="I21" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="201">
+      <c r="J21" s="174">
         <v>16</v>
       </c>
-      <c r="K21" s="202" t="s">
+      <c r="K21" s="175" t="s">
         <v>206</v>
       </c>
-      <c r="L21" s="203" t="s">
+      <c r="L21" s="176" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D22" s="214">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="187">
         <v>17</v>
       </c>
-      <c r="E22" s="182" t="s">
+      <c r="E22" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="214">
+      <c r="G22" s="187">
         <v>17</v>
       </c>
-      <c r="H22" s="182" t="s">
+      <c r="H22" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="I22" s="183" t="s">
+      <c r="I22" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="181">
+      <c r="J22" s="156">
         <v>17</v>
       </c>
-      <c r="K22" s="182" t="s">
+      <c r="K22" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="L22" s="183" t="s">
+      <c r="L22" s="158" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D23" s="214">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="187">
         <v>18</v>
       </c>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="183" t="s">
+      <c r="F23" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="214">
+      <c r="G23" s="187">
         <v>18</v>
       </c>
-      <c r="H23" s="182" t="s">
+      <c r="H23" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="183" t="s">
+      <c r="I23" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="J23" s="181">
+      <c r="J23" s="156">
         <v>18</v>
       </c>
-      <c r="K23" s="182" t="s">
+      <c r="K23" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="183" t="s">
+      <c r="L23" s="158" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D24" s="204">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="177">
         <v>19</v>
       </c>
-      <c r="E24" s="205" t="s">
+      <c r="E24" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="206" t="s">
+      <c r="F24" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="204">
+      <c r="G24" s="177">
         <v>19</v>
       </c>
-      <c r="H24" s="205" t="s">
+      <c r="H24" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="206" t="s">
+      <c r="I24" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="204">
+      <c r="J24" s="177">
         <v>19</v>
       </c>
-      <c r="K24" s="205" t="s">
+      <c r="K24" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="L24" s="206" t="s">
+      <c r="L24" s="179" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D25" s="214">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="187">
         <v>20</v>
       </c>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="183" t="s">
+      <c r="F25" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="214">
+      <c r="G25" s="187">
         <v>20</v>
       </c>
-      <c r="H25" s="182" t="s">
+      <c r="H25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="183" t="s">
+      <c r="I25" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="214">
+      <c r="J25" s="187">
         <v>20</v>
       </c>
-      <c r="K25" s="182" t="s">
+      <c r="K25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="183" t="s">
+      <c r="L25" s="158" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D26" s="214">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="187">
         <v>21</v>
       </c>
-      <c r="E26" s="182" t="s">
+      <c r="E26" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="183" t="s">
+      <c r="F26" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="G26" s="214">
+      <c r="G26" s="187">
         <v>21</v>
       </c>
-      <c r="H26" s="182" t="s">
+      <c r="H26" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="I26" s="183" t="s">
+      <c r="I26" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="J26" s="214">
+      <c r="J26" s="187">
         <v>21</v>
       </c>
-      <c r="K26" s="182" t="s">
+      <c r="K26" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="183" t="s">
+      <c r="L26" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="M26" s="111"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D27" s="147">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="128">
         <v>22</v>
       </c>
-      <c r="E27" s="148" t="s">
+      <c r="E27" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="149" t="s">
+      <c r="F27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="147">
+      <c r="G27" s="128">
         <v>22</v>
       </c>
-      <c r="H27" s="148" t="s">
+      <c r="H27" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="149" t="s">
+      <c r="I27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="J27" s="147">
+      <c r="J27" s="128">
         <v>22</v>
       </c>
-      <c r="K27" s="148" t="s">
+      <c r="K27" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="L27" s="149" t="s">
+      <c r="L27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="222"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D28" s="147">
+      <c r="M27" s="195"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="128">
         <v>23</v>
       </c>
-      <c r="E28" s="148" t="s">
+      <c r="E28" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="149" t="s">
+      <c r="F28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="128">
         <v>23</v>
       </c>
-      <c r="H28" s="148" t="s">
+      <c r="H28" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="149" t="s">
+      <c r="I28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="147">
+      <c r="J28" s="128">
         <v>23</v>
       </c>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="L28" s="149" t="s">
+      <c r="L28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="222"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D29" s="147">
+      <c r="M28" s="195"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="128">
         <v>24</v>
       </c>
-      <c r="E29" s="148" t="s">
+      <c r="E29" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="149" t="s">
+      <c r="F29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="147">
+      <c r="G29" s="128">
         <v>24</v>
       </c>
-      <c r="H29" s="148" t="s">
+      <c r="H29" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="149" t="s">
+      <c r="I29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="J29" s="147">
+      <c r="J29" s="128">
         <v>24</v>
       </c>
-      <c r="K29" s="148" t="s">
+      <c r="K29" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="L29" s="149" t="s">
+      <c r="L29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="222"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D30" s="147">
+      <c r="M29" s="195"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="128">
         <v>25</v>
       </c>
-      <c r="E30" s="148" t="s">
+      <c r="E30" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="149" t="s">
+      <c r="F30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="G30" s="147">
+      <c r="G30" s="128">
         <v>25</v>
       </c>
-      <c r="H30" s="148" t="s">
+      <c r="H30" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="149" t="s">
+      <c r="I30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="147">
+      <c r="J30" s="128">
         <v>25</v>
       </c>
-      <c r="K30" s="148" t="s">
+      <c r="K30" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="L30" s="149" t="s">
+      <c r="L30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="222"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D31" s="147">
+      <c r="M30" s="195"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="128">
         <v>26</v>
       </c>
-      <c r="E31" s="148" t="s">
+      <c r="E31" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="149" t="s">
+      <c r="F31" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="147">
+      <c r="G31" s="128">
         <v>26</v>
       </c>
-      <c r="H31" s="148" t="s">
+      <c r="H31" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="149" t="s">
+      <c r="I31" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="147">
+      <c r="J31" s="128">
         <v>26</v>
       </c>
-      <c r="K31" s="148" t="s">
+      <c r="K31" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="L31" s="149" t="s">
+      <c r="L31" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="M31" s="111"/>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D32" s="107"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="107">
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="89"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="89">
         <v>27</v>
       </c>
-      <c r="K32" s="108"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="111"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="107">
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="89">
         <v>28</v>
       </c>
-      <c r="K33" s="108"/>
-      <c r="L33" s="109"/>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="137">
+      <c r="K33" s="90"/>
+      <c r="L33" s="91"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="118">
         <v>29</v>
       </c>
-      <c r="K34" s="138" t="s">
+      <c r="K34" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="139" t="s">
+      <c r="L34" s="120" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="194"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="215">
+    <row r="35" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="188">
         <v>30</v>
       </c>
-      <c r="K35" s="138" t="s">
+      <c r="K35" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="139" t="s">
+      <c r="L35" s="120" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D36" s="77"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="79"/>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D37" s="54"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="55"/>
-    </row>
-    <row r="38" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="L38" s="31"/>
-    </row>
-    <row r="39" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="150" t="s">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="67"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="51"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="52"/>
+    </row>
+    <row r="38" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="223" t="s">
+      <c r="K39" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="224"/>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D40" s="152" t="s">
+      <c r="L39" s="197"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="104"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D41" s="159" t="s">
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="160"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="141"/>
+      <c r="F41" s="142"/>
+      <c r="G41" t="s">
         <v>202</v>
       </c>
-      <c r="H41" s="172" t="s">
+      <c r="H41" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="I41" s="172"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="104"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D42" s="159" t="s">
+      <c r="I41" s="28"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="87"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="160"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="141"/>
+      <c r="F42" s="142"/>
+      <c r="G42" t="s">
         <v>209</v>
       </c>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="104"/>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D43" s="159" t="s">
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="160"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="3" t="s">
+      <c r="E43" s="141"/>
+      <c r="F43" s="142"/>
+      <c r="G43" t="s">
         <v>210</v>
       </c>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="104"/>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D44" s="53"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="104"/>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D45" s="154"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="156"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="158"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="87"/>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D44" s="50"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="135"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="137"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3086,349 +3023,328 @@
   </sheetPr>
   <dimension ref="C2:N36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="180" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6" s="162">
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
         <v>1</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D7" s="165">
+      <c r="G6" s="88"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
         <v>2</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="165">
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="146">
         <v>3</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9" s="189">
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="162">
         <v>4</v>
       </c>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="183" t="s">
+      <c r="F9" s="198" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D10" s="189">
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="162">
         <v>5</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="198" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-    </row>
-    <row r="11" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="184">
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="159">
         <v>6</v>
       </c>
-      <c r="E11" s="185" t="s">
+      <c r="E11" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="107"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="N27" s="102"/>
-    </row>
-    <row r="28" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="5"/>
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="168" t="s">
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="195"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="195"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="89"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="195"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="195"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="223" t="s">
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D30" s="168" t="s">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D31" s="171"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D32" s="171"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="179"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="171"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="173"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="174"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="158"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="F31" s="28"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="F34" s="28"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3457,423 +3373,402 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="180" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6" s="162">
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
         <v>0</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D7" s="165">
+      <c r="G6" s="88"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
         <v>1</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="165">
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="146">
         <v>2</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9" s="107">
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="89">
         <v>3</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D10" s="107">
+      <c r="F9" s="105"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
         <v>4</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D11" s="117">
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
         <v>5</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="137">
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="118">
         <v>6</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="181">
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="156">
         <v>7</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="181">
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="156">
         <v>8</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="E14" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="181">
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="156">
         <v>9</v>
       </c>
-      <c r="E15" s="182" t="s">
+      <c r="E15" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="183" t="s">
+      <c r="F15" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="181">
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="156">
         <v>10</v>
       </c>
-      <c r="E16" s="182" t="s">
+      <c r="E16" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="F16" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="181">
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="195"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="156">
         <v>11</v>
       </c>
-      <c r="E17" s="182" t="s">
+      <c r="E17" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="183" t="s">
+      <c r="F17" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="142">
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="195"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
         <v>12</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F18" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="142">
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="195"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
         <v>13</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="147">
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="195"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="128">
         <v>14</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="149" t="s">
+      <c r="F20" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="147">
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="128">
         <v>15</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="E21" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="F21" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D22" s="147">
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="128">
         <v>16</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="E22" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="149" t="s">
+      <c r="F22" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D23" s="147">
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="128">
         <v>17</v>
       </c>
-      <c r="E23" s="148" t="s">
+      <c r="E23" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="149" t="s">
+      <c r="F23" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D24" s="147">
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="128">
         <v>18</v>
       </c>
-      <c r="E24" s="148" t="s">
+      <c r="E24" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="149" t="s">
+      <c r="F24" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="181">
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="156">
         <v>19</v>
       </c>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="183" t="s">
+      <c r="F25" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="N27" s="102"/>
-    </row>
-    <row r="28" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="5"/>
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="171"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="50"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D31" s="171"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D32" s="53"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="179"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="171"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="173"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="174"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="158"/>
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="50"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="F31" s="28"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="F34" s="28"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3902,543 +3797,524 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6" s="162">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
         <v>1</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="88">
         <v>1</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D7" s="165">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
         <v>2</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="181">
+      <c r="G7" s="156">
         <v>2</v>
       </c>
-      <c r="H7" s="182" t="s">
+      <c r="H7" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="183" t="s">
+      <c r="I7" s="158" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="165">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="146">
         <v>3</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="181">
+      <c r="G8" s="156">
         <v>3</v>
       </c>
-      <c r="H8" s="182" t="s">
+      <c r="H8" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="183" t="s">
+      <c r="I8" s="158" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9" s="107">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="89">
         <v>4</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="181">
+      <c r="F9" s="105"/>
+      <c r="G9" s="156">
         <v>4</v>
       </c>
-      <c r="H9" s="182" t="s">
+      <c r="H9" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="158" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D10" s="107">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
         <v>5</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="181">
+      <c r="G10" s="156">
         <v>5</v>
       </c>
-      <c r="H10" s="182" t="s">
+      <c r="H10" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="183" t="s">
+      <c r="I10" s="158" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D11" s="117">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
         <v>6</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="181">
+      <c r="G11" s="156">
         <v>6</v>
       </c>
-      <c r="H11" s="182" t="s">
+      <c r="H11" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="183" t="s">
+      <c r="I11" s="158" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="107">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="89">
         <v>7</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="181">
+      <c r="F12" s="91"/>
+      <c r="G12" s="156">
         <v>7</v>
       </c>
-      <c r="H12" s="182" t="s">
+      <c r="H12" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="158" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="125">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
         <v>8</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="181">
+      <c r="G13" s="156">
         <v>8</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="I13" s="183" t="s">
+      <c r="I13" s="158" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="125">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
         <v>9</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="89">
         <v>9</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="91" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="125">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
         <v>10</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="89">
         <v>10</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="125">
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
         <v>11</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="89">
         <v>11</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="222"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="125">
+      <c r="J16" s="195"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
         <v>12</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="89">
         <v>12</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="222"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="142">
+      <c r="J17" s="195"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
         <v>13</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F18" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="89">
         <v>13</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="222"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="142">
+      <c r="J18" s="195"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
         <v>14</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="89">
         <v>14</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="109"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="134">
+      <c r="I19" s="91"/>
+      <c r="J19" s="195"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="115">
         <v>15</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="136" t="s">
+      <c r="F20" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="89">
         <v>15</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="134">
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="115">
         <v>16</v>
       </c>
-      <c r="E21" s="135" t="s">
+      <c r="E21" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G21" s="89">
         <v>16</v>
       </c>
-      <c r="H21" s="108" t="s">
+      <c r="H21" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D22" s="134">
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="115">
         <v>17</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="89">
         <v>17</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D23" s="134">
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="115">
         <v>18</v>
       </c>
-      <c r="E23" s="135" t="s">
+      <c r="E23" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="136" t="s">
+      <c r="F23" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="89">
         <v>18</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="I23" s="109"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D24" s="134">
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="115">
         <v>19</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="136" t="s">
+      <c r="F24" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="89">
         <v>19</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="107">
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="89">
         <v>20</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="137">
+      <c r="F25" s="91"/>
+      <c r="G25" s="118">
         <v>20</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="120" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="N27" s="102"/>
-    </row>
-    <row r="28" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="5"/>
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="168" t="s">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D30" s="168" t="s">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D31" s="176" t="s">
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="177"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="153"/>
+      <c r="F31" s="154"/>
+      <c r="G31" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D32" s="53"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="179"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="171"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="173"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="174"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="158"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="F34" s="28"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4467,561 +4343,556 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="116">
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="97">
         <v>1</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="109">
         <v>1</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="111" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="112">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="93">
         <v>2</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="112">
         <v>2</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="114" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="112">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="93">
         <v>3</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="134">
+      <c r="G8" s="115">
         <v>3</v>
       </c>
-      <c r="H8" s="135" t="s">
+      <c r="H8" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="112">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="93">
         <v>4</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="134">
+      <c r="G9" s="115">
         <v>4</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="117" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="117">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="98">
         <v>5</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="115">
         <v>5</v>
       </c>
-      <c r="H10" s="135" t="s">
+      <c r="H10" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="136" t="s">
+      <c r="I10" s="117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="107">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="89">
         <v>6</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="141" t="s">
+      <c r="F11" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="115">
         <v>6</v>
       </c>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="136" t="s">
+      <c r="I11" s="117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="117">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="98">
         <v>7</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="115">
         <v>7</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="125">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
         <v>8</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="112">
         <v>8</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="125">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
         <v>9</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="89">
         <v>9</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="91" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="125">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
         <v>10</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="89">
         <v>10</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="111"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D16" s="125">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
         <v>11</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="89">
         <v>11</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="222"/>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D17" s="125">
+      <c r="J16" s="195"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
         <v>12</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="89">
         <v>12</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="222"/>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D18" s="142">
+      <c r="J17" s="195"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
         <v>13</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F18" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="89">
         <v>13</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="222"/>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D19" s="142">
+      <c r="J18" s="195"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
         <v>14</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="106">
         <v>14</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="127" t="s">
+      <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="222"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D20" s="112">
+      <c r="J19" s="195"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="93">
         <v>15</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="106">
         <v>15</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="127" t="s">
+      <c r="I20" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="111"/>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D21" s="112">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="93">
         <v>16</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="123" t="s">
+      <c r="F21" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="106">
         <v>16</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="127" t="s">
+      <c r="I21" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="111"/>
-    </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D22" s="112">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="93">
         <v>17</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="93">
         <v>17</v>
       </c>
-      <c r="H22" s="113" t="s">
+      <c r="H22" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="96" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D23" s="214">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="187">
         <v>18</v>
       </c>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="183" t="s">
+      <c r="F23" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="93">
         <v>18</v>
       </c>
-      <c r="H23" s="113" t="s">
+      <c r="H23" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="96" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D24" s="214">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="187">
         <v>19</v>
       </c>
-      <c r="E24" s="182" t="s">
+      <c r="E24" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="183" t="s">
+      <c r="F24" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="147">
+      <c r="G24" s="128">
         <v>19</v>
       </c>
-      <c r="H24" s="148" t="s">
+      <c r="H24" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="149" t="s">
+      <c r="I24" s="130" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="137">
+    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="118">
         <v>20</v>
       </c>
-      <c r="E25" s="138" t="s">
+      <c r="E25" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="139" t="s">
+      <c r="F25" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="137">
+      <c r="G25" s="118">
         <v>20</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="120" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="T27" s="102"/>
-    </row>
-    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="150" t="s">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D30" s="152" t="s">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D31" s="152" t="s">
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D32" s="159" t="s">
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="160"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="159" t="s">
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="160"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
+      <c r="G33" t="s">
         <v>209</v>
       </c>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="159" t="s">
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="141"/>
+      <c r="F34" s="142"/>
+      <c r="G34" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="105"/>
-      <c r="I34" s="104"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="158"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5045,444 +4916,426 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="74">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
+      <c r="H6" s="58"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="32">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="83"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
+      <c r="H7" s="12"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="32">
         <v>3</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="83"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="39">
+      <c r="H8" s="12"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="37">
         <v>4</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <v>4</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="39">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="37">
         <v>5</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>5</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="34">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
         <v>6</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="34">
+      <c r="H11" s="12"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
         <v>7</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="34">
+      <c r="H12" s="12"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
         <v>8</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="34">
+      <c r="H13" s="12"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
         <v>9</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="82">
+      <c r="H14" s="12"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="32">
         <v>10</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="82">
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="32">
         <v>10</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="83"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="32">
+      <c r="H15" s="12"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="30">
         <v>11</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="30">
         <v>11</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="36">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="34">
         <v>12</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <v>12</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="37">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="35">
         <v>13</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="35">
         <v>13</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="34">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32">
         <v>14</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="34">
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="32">
         <v>14</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="34">
+      <c r="H19" s="12"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32">
         <v>15</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="34">
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="32">
         <v>15</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="34">
+      <c r="H20" s="12"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
         <v>16</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34">
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="32">
         <v>16</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="34">
+      <c r="H21" s="12"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="32">
         <v>17</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="34">
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="32">
         <v>17</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="34">
+      <c r="H22" s="12"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
         <v>18</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="34">
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="32">
         <v>18</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="91">
+      <c r="H23" s="12"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="76">
         <v>19</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="32">
         <v>19</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="83"/>
-    </row>
-    <row r="25" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="34">
+      <c r="H24" s="12"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="32">
         <v>20</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="32">
         <v>20</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-    </row>
-    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5498,442 +5351,397 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
-  <dimension ref="C2:J36"/>
+  <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="67" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="74">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="64">
         <v>0</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="78">
         <v>3</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="39">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="37">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="39">
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="37">
         <v>4</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <v>5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="82">
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
         <v>5</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="82">
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
         <v>6</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="82">
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
         <v>7</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="82">
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
         <v>8</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="32">
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="30">
         <v>9</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>10</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="57"/>
-      <c r="D16" s="36">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="34">
         <v>10</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="57"/>
-      <c r="D17" s="93">
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="78">
         <v>11</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="57"/>
-      <c r="D18" s="82">
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="32">
         <v>12</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="57"/>
-      <c r="D19" s="82">
+      <c r="E18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32">
         <v>13</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="58"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="57"/>
-      <c r="D20" s="82">
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32">
         <v>14</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C21" s="57"/>
-      <c r="D21" s="82">
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
         <v>15</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="57"/>
-      <c r="D22" s="82">
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="32">
         <v>16</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="57"/>
-      <c r="D23" s="82">
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
         <v>17</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="57"/>
-      <c r="D24" s="82">
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="32">
         <v>18</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="57"/>
-      <c r="D25" s="86">
+      <c r="G24" s="51"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="36">
         <v>19</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+      <c r="G25" s="51"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5949,394 +5757,348 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
-  <dimension ref="C2:J36"/>
+  <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="80" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="82" t="s">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="78">
+      <c r="E6" s="12"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="82" t="s">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="36">
+      <c r="E7" s="12"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="82" t="s">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="37">
+      <c r="E8" s="12"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="35">
         <v>3</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="82" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="34">
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="82" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="34">
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
         <v>5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="82" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="82" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="82" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="82" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="82" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="38">
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="36">
         <v>10</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="57"/>
-      <c r="D16" s="82" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="57"/>
-      <c r="D17" s="82" t="s">
+      <c r="F16" s="72"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="57"/>
-      <c r="D18" s="82" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="72"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="57"/>
-      <c r="D19" s="82" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="58"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="57"/>
-      <c r="D20" s="82" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="57"/>
-      <c r="D21" s="86" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="57"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="57"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="57"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="57"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D26" s="54"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="51"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="51"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="51"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="51"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6358,454 +6120,435 @@
       <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="190"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="191"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="192"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="48" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="32">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <v>3</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="34">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32">
         <v>4</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="34">
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="34">
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32">
         <v>5</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="34">
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
         <v>5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="34">
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
         <v>6</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="34">
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
         <v>7</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="34">
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
         <v>8</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="34">
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
         <v>9</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="35">
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="33">
         <v>10</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>10</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="29"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="42" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="42" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="43" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="32">
+    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="30">
         <v>1</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="32">
         <v>1</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="36">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="34">
         <v>2</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>2</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="37">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="35">
         <v>3</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="35">
         <v>3</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="34">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
         <v>4</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34">
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="32">
         <v>4</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="39">
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="37">
         <v>5</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="32">
         <v>5</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="34">
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
         <v>6</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="34">
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="32">
         <v>6</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="39">
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="37">
         <v>7</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="32">
         <v>7</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="34">
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="32">
         <v>8</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="34">
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="32">
         <v>8</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="34">
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="32">
         <v>9</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="32">
         <v>9</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="38">
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="36">
         <v>10</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="36">
         <v>10</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
